--- a/excel_files/monthly_interpolated_unemployment.xlsx
+++ b/excel_files/monthly_interpolated_unemployment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91978\Desktop\inflation_prediction_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91978\Desktop\inflation_prediction_project\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3559167C-D39A-4B59-959F-A18EA937C388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120A2705-7301-4C4A-86A3-71DEE118AF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="mm/yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -113,25 +113,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B398"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
